--- a/data/first_test_spreadsheet_data.xlsx
+++ b/data/first_test_spreadsheet_data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,24 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
   <si>
-    <t xml:space="preserve">a1</t>
+    <t>a1</t>
   </si>
   <si>
-    <t xml:space="preserve">a2</t>
+    <t>a2</t>
   </si>
   <si>
-    <t xml:space="preserve">a3</t>
+    <t>a3</t>
   </si>
   <si>
-    <t xml:space="preserve">b3</t>
+    <t>b3</t>
   </si>
   <si>
-    <t xml:space="preserve">c3</t>
+    <t>c3</t>
   </si>
   <si>
-    <t xml:space="preserve">d4</t>
+    <t>d4</t>
   </si>
 </sst>
 </file>
@@ -49,24 +49,24 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,34 +87,34 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -128,6 +128,324 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="false"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="false">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="false">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="false">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -135,26 +453,26 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="false" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col min="1" max="1025" width="11.52" style="0" hidden="false" customWidth="false" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
+    <row r="1" spans="1:1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="str">
+        <v>Guy</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
@@ -165,16 +483,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="4:4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
